--- a/medicine/Enfance/Prix_Québec-Wallonie-Bruxelles_de_littérature_de_jeunesse/Prix_Québec-Wallonie-Bruxelles_de_littérature_de_jeunesse.xlsx
+++ b/medicine/Enfance/Prix_Québec-Wallonie-Bruxelles_de_littérature_de_jeunesse/Prix_Québec-Wallonie-Bruxelles_de_littérature_de_jeunesse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prix_Qu%C3%A9bec-Wallonie-Bruxelles_de_litt%C3%A9rature_de_jeunesse</t>
+          <t>Prix_Québec-Wallonie-Bruxelles_de_littérature_de_jeunesse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le prix Québec/Wallonie-Bruxelles de littérature de jeunesse est un ancien prix, créé en 1978, et décerné pour la dernière fois en 2015[1].
-Le prix est créé en 1978, et décerné pour la première fois en 1981[1]. Il a pour but d'encourager le développement de la littérature jeunesse et de faire connaître aux deux communautés, québécoise et française de Belgique, leur production respective. De nouveaux règlements sont entrés en vigueur en 2005. Depuis cette date, le prix est attribué à tous les deux ans conjointement à un lauréat québécois et à un lauréat de la Communauté française de Belgique (qui utilise Fédération Wallonie-Bruxelles dans sa communication). Le genre littéraire en compétition peut varier d'une année à l'autre et est annoncé à l'automne de chaque année paire, jusqu'en 2015, dernière proclamation du prix[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le prix Québec/Wallonie-Bruxelles de littérature de jeunesse est un ancien prix, créé en 1978, et décerné pour la dernière fois en 2015.
+Le prix est créé en 1978, et décerné pour la première fois en 1981. Il a pour but d'encourager le développement de la littérature jeunesse et de faire connaître aux deux communautés, québécoise et française de Belgique, leur production respective. De nouveaux règlements sont entrés en vigueur en 2005. Depuis cette date, le prix est attribué à tous les deux ans conjointement à un lauréat québécois et à un lauréat de la Communauté française de Belgique (qui utilise Fédération Wallonie-Bruxelles dans sa communication). Le genre littéraire en compétition peut varier d'une année à l'autre et est annoncé à l'automne de chaque année paire, jusqu'en 2015, dernière proclamation du prix.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prix_Qu%C3%A9bec-Wallonie-Bruxelles_de_litt%C3%A9rature_de_jeunesse</t>
+          <t>Prix_Québec-Wallonie-Bruxelles_de_littérature_de_jeunesse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Lauréats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1981 : Françoise Souply-Clabots
 1982 : Raymond Plante
